--- a/database/sidis/expdata/2521.xlsx
+++ b/database/sidis/expdata/2521.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\Summer Research\sidisdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09F7DC6-CB45-4E2A-B068-1ADA8D82A62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00A8776-CA4B-BC42-B3EE-C42487BEC6CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="1440" windowWidth="13170" windowHeight="11520" xr2:uid="{19E60C49-6E5F-4DBC-AB04-3D64A8E61757}"/>
+    <workbookView xWindow="2200" yWindow="1440" windowWidth="13180" windowHeight="11520" xr2:uid="{19E60C49-6E5F-4DBC-AB04-3D64A8E61757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Q2</t>
   </si>
@@ -91,6 +82,9 @@
   </si>
   <si>
     <t>xmax</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
@@ -173,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -184,6 +178,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB15D36-2FB8-47EE-B126-B372CC9A95A1}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O8"/>
+      <selection activeCell="P2" sqref="P2:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +549,11 @@
       <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1.3</v>
       </c>
@@ -599,8 +599,11 @@
       <c r="O2" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1.72</v>
       </c>
@@ -646,8 +649,11 @@
       <c r="O3" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2.14</v>
       </c>
@@ -693,8 +699,11 @@
       <c r="O4" s="2">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2.58</v>
       </c>
@@ -740,8 +749,11 @@
       <c r="O5" s="2">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3.19</v>
       </c>
@@ -787,8 +799,11 @@
       <c r="O6" s="2">
         <v>0.13400000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4.0999999999999996</v>
       </c>
@@ -834,8 +849,11 @@
       <c r="O7" s="2">
         <v>0.186</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6.14</v>
       </c>
@@ -881,8 +899,11 @@
       <c r="O8" s="2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -897,47 +918,47 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F11" s="3"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F13" s="3"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F15" s="3"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F18" s="3"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -952,7 +973,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -967,7 +988,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -982,7 +1003,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -997,7 +1018,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1012,7 +1033,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1027,7 +1048,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1042,7 +1063,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1057,7 +1078,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1072,7 +1093,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1087,7 +1108,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>

--- a/database/sidis/expdata/2521.xlsx
+++ b/database/sidis/expdata/2521.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00A8776-CA4B-BC42-B3EE-C42487BEC6CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F6BB7-662B-BD45-9AD6-A2157DE9ABE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1440" windowWidth="13180" windowHeight="11520" xr2:uid="{19E60C49-6E5F-4DBC-AB04-3D64A8E61757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{19E60C49-6E5F-4DBC-AB04-3D64A8E61757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB15D36-2FB8-47EE-B126-B372CC9A95A1}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -902,21 +902,6 @@
       <c r="P8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F11" s="3"/>
